--- a/src/Data_Merit_Demerit_HR_2023.xlsx
+++ b/src/Data_Merit_Demerit_HR_2023.xlsx
@@ -396,6 +396,9 @@
     <t>SARUNG RACE</t>
   </si>
   <si>
+    <t>KOLOKIUM ZON SELATAN</t>
+  </si>
+  <si>
     <t>PUISI KOPERASI</t>
   </si>
   <si>
@@ -445,9 +448,6 @@
   </si>
   <si>
     <t>PN ZURAIDA BINTI SAPIEE</t>
-  </si>
-  <si>
-    <t>EN MOHD FAIZI BIN MAMAT</t>
   </si>
   <si>
     <t>REKOD MERIT DIMERIT HOMEROOM TINGKATAN 0 2023</t>
@@ -1852,12 +1852,14 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
+      <c r="H36" s="18">
+        <v>200.0</v>
+      </c>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
       <c r="K36" s="20">
         <f t="shared" ref="K36:K53" si="2">C36+E36+G36+I36-D36-F36-H36-J36</f>
-        <v>0</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -1874,12 +1876,14 @@
         <v>400.0</v>
       </c>
       <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
+      <c r="H37" s="18">
+        <v>400.0</v>
+      </c>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
       <c r="K37" s="20">
         <f t="shared" si="2"/>
-        <v>-400</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -1914,12 +1918,14 @@
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
+      <c r="H39" s="18">
+        <v>200.0</v>
+      </c>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
       <c r="K39" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -1976,12 +1982,14 @@
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
+      <c r="H42" s="18">
+        <v>200.0</v>
+      </c>
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
       <c r="K42" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -2579,13 +2587,15 @@
       </c>
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
+      <c r="K71" s="32">
+        <v>1750.0</v>
+      </c>
       <c r="L71" s="15"/>
       <c r="M71" s="15"/>
       <c r="N71" s="15"/>
       <c r="O71" s="33">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -3567,7 +3577,7 @@
       </c>
       <c r="D111" s="38">
         <f t="shared" ref="D111:D128" si="5">C111+K11+K36+S86-O61</f>
-        <v>5535</v>
+        <v>5335</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -3588,7 +3598,7 @@
       </c>
       <c r="D112" s="38">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>-367</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -3630,7 +3640,7 @@
       </c>
       <c r="D114" s="38">
         <f t="shared" si="5"/>
-        <v>11875</v>
+        <v>11675</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -3693,7 +3703,7 @@
       </c>
       <c r="D117" s="38">
         <f t="shared" si="5"/>
-        <v>2893</v>
+        <v>2693</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -3777,7 +3787,7 @@
       </c>
       <c r="D121" s="38">
         <f t="shared" si="5"/>
-        <v>14344</v>
+        <v>12594</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -7465,12 +7475,14 @@
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
+      <c r="H37" s="18">
+        <v>400.0</v>
+      </c>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
       <c r="K37" s="20">
         <f>C37+E37+G37+I37-D37-TING.1!F37-H37-J37</f>
-        <v>-200</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -7535,12 +7547,14 @@
         <v>200.0</v>
       </c>
       <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
+      <c r="H40" s="18">
+        <v>200.0</v>
+      </c>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
       <c r="K40" s="20">
         <f>C40+E40+G40+I40-D40-TING.1!F40-H40-J40</f>
-        <v>0</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -8148,13 +8162,15 @@
       </c>
       <c r="I68" s="15"/>
       <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
+      <c r="K68" s="32">
+        <v>1750.0</v>
+      </c>
       <c r="L68" s="15"/>
       <c r="M68" s="15"/>
       <c r="N68" s="15"/>
       <c r="O68" s="33">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -9279,7 +9295,7 @@
       </c>
       <c r="D112" s="38">
         <f t="shared" si="5"/>
-        <v>4685</v>
+        <v>4285</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -9342,7 +9358,7 @@
       </c>
       <c r="D115" s="38">
         <f t="shared" si="5"/>
-        <v>12880</v>
+        <v>12680</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -9405,7 +9421,7 @@
       </c>
       <c r="D118" s="38">
         <f t="shared" si="5"/>
-        <v>8040</v>
+        <v>6290</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -13184,12 +13200,14 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
+      <c r="H36" s="18">
+        <v>200.0</v>
+      </c>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
       <c r="K36" s="20">
         <f t="shared" ref="K36:K53" si="2">C36+E36+G36+I36-D36-F36-H36-J36</f>
-        <v>0</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -13206,12 +13224,14 @@
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
+      <c r="H37" s="18">
+        <v>200.0</v>
+      </c>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
       <c r="K37" s="20">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -13250,12 +13270,14 @@
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
+      <c r="H39" s="18">
+        <v>200.0</v>
+      </c>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
       <c r="K39" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -13271,13 +13293,15 @@
       <c r="D40" s="24"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
+      <c r="G40" s="18">
+        <v>200.0</v>
+      </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
       <c r="K40" s="20">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -13400,12 +13424,14 @@
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
+      <c r="H46" s="18">
+        <v>200.0</v>
+      </c>
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
       <c r="K46" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -13461,13 +13487,15 @@
       <c r="D49" s="24"/>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
+      <c r="G49" s="18">
+        <v>200.0</v>
+      </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
       <c r="K49" s="20">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -13481,13 +13509,15 @@
       <c r="D50" s="24"/>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
+      <c r="G50" s="18">
+        <v>600.0</v>
+      </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="19"/>
       <c r="K50" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -13544,12 +13574,14 @@
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
+      <c r="H53" s="18">
+        <v>200.0</v>
+      </c>
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
       <c r="K53" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -15033,7 +15065,7 @@
       </c>
       <c r="D111" s="38">
         <f t="shared" ref="D111:D128" si="5">C111+K11+K36+S86-O61</f>
-        <v>10864</v>
+        <v>10664</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -15054,7 +15086,7 @@
       </c>
       <c r="D112" s="38">
         <f t="shared" si="5"/>
-        <v>19110</v>
+        <v>18910</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -15096,7 +15128,7 @@
       </c>
       <c r="D114" s="38">
         <f t="shared" si="5"/>
-        <v>5250</v>
+        <v>5050</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -15117,7 +15149,7 @@
       </c>
       <c r="D115" s="38">
         <f t="shared" si="5"/>
-        <v>14627</v>
+        <v>14827</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -15243,7 +15275,7 @@
       </c>
       <c r="D121" s="38">
         <f t="shared" si="5"/>
-        <v>12820</v>
+        <v>12620</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -15306,7 +15338,7 @@
       </c>
       <c r="D124" s="38">
         <f t="shared" si="5"/>
-        <v>10507</v>
+        <v>10707</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -15327,7 +15359,7 @@
       </c>
       <c r="D125" s="38">
         <f t="shared" si="5"/>
-        <v>21456</v>
+        <v>22056</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -15390,7 +15422,7 @@
       </c>
       <c r="D128" s="38">
         <f t="shared" si="5"/>
-        <v>13440</v>
+        <v>13240</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -18983,12 +19015,14 @@
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
+      <c r="H38" s="18">
+        <v>400.0</v>
+      </c>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
       <c r="K38" s="20">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -19003,12 +19037,14 @@
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
+      <c r="H39" s="18">
+        <v>200.0</v>
+      </c>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
       <c r="K39" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -19087,12 +19123,14 @@
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
+      <c r="H43" s="18">
+        <v>200.0</v>
+      </c>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
       <c r="K43" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -19107,12 +19145,14 @@
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
+      <c r="H44" s="18">
+        <v>200.0</v>
+      </c>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
       <c r="K44" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -19193,12 +19233,14 @@
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
+      <c r="H48" s="18">
+        <v>200.0</v>
+      </c>
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
       <c r="K48" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -19293,12 +19335,14 @@
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
+      <c r="H53" s="18">
+        <v>400.0</v>
+      </c>
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
       <c r="K53" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -19460,13 +19504,15 @@
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
       <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
+      <c r="K62" s="32">
+        <v>3500.0</v>
+      </c>
       <c r="L62" s="15"/>
       <c r="M62" s="15"/>
       <c r="N62" s="15"/>
       <c r="O62" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -19514,13 +19560,15 @@
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
+      <c r="K64" s="32">
+        <v>1750.0</v>
+      </c>
       <c r="L64" s="15"/>
       <c r="M64" s="15"/>
       <c r="N64" s="15"/>
       <c r="O64" s="33">
         <f t="shared" si="3"/>
-        <v>1750</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -19832,7 +19880,9 @@
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
+      <c r="I77" s="32">
+        <v>500.0</v>
+      </c>
       <c r="J77" s="15"/>
       <c r="K77" s="15"/>
       <c r="L77" s="15"/>
@@ -19840,7 +19890,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="33">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -19858,7 +19908,9 @@
       </c>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
+      <c r="I78" s="32">
+        <v>500.0</v>
+      </c>
       <c r="J78" s="15"/>
       <c r="K78" s="15"/>
       <c r="L78" s="15"/>
@@ -19866,7 +19918,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="33">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -19918,11 +19970,11 @@
       </c>
       <c r="N84" s="9"/>
       <c r="O84" s="34" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="P84" s="9"/>
       <c r="Q84" s="34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R84" s="9"/>
       <c r="S84" s="10" t="s">
@@ -20015,15 +20067,13 @@
         <v>100.0</v>
       </c>
       <c r="N86" s="19"/>
-      <c r="O86" s="18">
-        <v>100.0</v>
-      </c>
+      <c r="O86" s="18"/>
       <c r="P86" s="19"/>
       <c r="Q86" s="19"/>
       <c r="R86" s="19"/>
       <c r="S86" s="33">
         <f t="shared" ref="S86:S103" si="4">C86+E86+G86+I86-D86-F86-H86-J86+K86-L86+M86-N86+O86-P86+Q86-R86</f>
-        <v>1900</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
@@ -20054,14 +20104,14 @@
       </c>
       <c r="N87" s="19"/>
       <c r="O87" s="18">
-        <v>100.0</v>
+        <v>2000.0</v>
       </c>
       <c r="P87" s="19"/>
       <c r="Q87" s="19"/>
       <c r="R87" s="19"/>
       <c r="S87" s="33">
         <f t="shared" si="4"/>
-        <v>1100</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
@@ -20093,15 +20143,13 @@
         <v>100.0</v>
       </c>
       <c r="N88" s="19"/>
-      <c r="O88" s="18">
-        <v>100.0</v>
-      </c>
+      <c r="O88" s="18"/>
       <c r="P88" s="19"/>
       <c r="Q88" s="19"/>
       <c r="R88" s="19"/>
       <c r="S88" s="33">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
@@ -20135,15 +20183,13 @@
         <v>100.0</v>
       </c>
       <c r="N89" s="19"/>
-      <c r="O89" s="18">
-        <v>100.0</v>
-      </c>
+      <c r="O89" s="18"/>
       <c r="P89" s="19"/>
       <c r="Q89" s="19"/>
       <c r="R89" s="19"/>
       <c r="S89" s="33">
         <f t="shared" si="4"/>
-        <v>1100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
@@ -20175,15 +20221,13 @@
         <v>300.0</v>
       </c>
       <c r="N90" s="19"/>
-      <c r="O90" s="18">
-        <v>100.0</v>
-      </c>
+      <c r="O90" s="18"/>
       <c r="P90" s="19"/>
       <c r="Q90" s="19"/>
       <c r="R90" s="19"/>
       <c r="S90" s="33">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
@@ -20215,15 +20259,13 @@
         <v>100.0</v>
       </c>
       <c r="N91" s="19"/>
-      <c r="O91" s="18">
-        <v>100.0</v>
-      </c>
+      <c r="O91" s="18"/>
       <c r="P91" s="19"/>
       <c r="Q91" s="19"/>
       <c r="R91" s="19"/>
       <c r="S91" s="33">
         <f t="shared" si="4"/>
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
@@ -20255,15 +20297,13 @@
         <v>100.0</v>
       </c>
       <c r="N92" s="19"/>
-      <c r="O92" s="18">
-        <v>100.0</v>
-      </c>
+      <c r="O92" s="18"/>
       <c r="P92" s="19"/>
       <c r="Q92" s="19"/>
       <c r="R92" s="19"/>
       <c r="S92" s="33">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
@@ -20298,14 +20338,14 @@
       </c>
       <c r="N93" s="19"/>
       <c r="O93" s="18">
-        <v>100.0</v>
+        <v>1900.0</v>
       </c>
       <c r="P93" s="19"/>
       <c r="Q93" s="19"/>
       <c r="R93" s="19"/>
       <c r="S93" s="33">
         <f t="shared" si="4"/>
-        <v>900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
@@ -20335,15 +20375,13 @@
         <v>100.0</v>
       </c>
       <c r="N94" s="19"/>
-      <c r="O94" s="18">
-        <v>100.0</v>
-      </c>
+      <c r="O94" s="18"/>
       <c r="P94" s="19"/>
       <c r="Q94" s="19"/>
       <c r="R94" s="19"/>
       <c r="S94" s="33">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
@@ -20377,9 +20415,7 @@
         <v>200.0</v>
       </c>
       <c r="N95" s="19"/>
-      <c r="O95" s="18">
-        <v>100.0</v>
-      </c>
+      <c r="O95" s="18"/>
       <c r="P95" s="19"/>
       <c r="Q95" s="18">
         <v>500.0</v>
@@ -20387,7 +20423,7 @@
       <c r="R95" s="19"/>
       <c r="S95" s="33">
         <f t="shared" si="4"/>
-        <v>1300</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
@@ -20421,15 +20457,13 @@
         <v>100.0</v>
       </c>
       <c r="N96" s="19"/>
-      <c r="O96" s="18">
-        <v>100.0</v>
-      </c>
+      <c r="O96" s="18"/>
       <c r="P96" s="19"/>
       <c r="Q96" s="19"/>
       <c r="R96" s="19"/>
       <c r="S96" s="33">
         <f t="shared" si="4"/>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
@@ -20462,14 +20496,14 @@
       </c>
       <c r="N97" s="19"/>
       <c r="O97" s="18">
-        <v>100.0</v>
+        <v>1800.0</v>
       </c>
       <c r="P97" s="19"/>
       <c r="Q97" s="19"/>
       <c r="R97" s="19"/>
       <c r="S97" s="33">
         <f t="shared" si="4"/>
-        <v>1900</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
@@ -20499,15 +20533,13 @@
         <v>100.0</v>
       </c>
       <c r="N98" s="19"/>
-      <c r="O98" s="18">
-        <v>100.0</v>
-      </c>
+      <c r="O98" s="18"/>
       <c r="P98" s="19"/>
       <c r="Q98" s="19"/>
       <c r="R98" s="19"/>
       <c r="S98" s="33">
         <f t="shared" si="4"/>
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
@@ -20541,15 +20573,13 @@
         <v>100.0</v>
       </c>
       <c r="N99" s="19"/>
-      <c r="O99" s="18">
-        <v>100.0</v>
-      </c>
+      <c r="O99" s="18"/>
       <c r="P99" s="19"/>
       <c r="Q99" s="19"/>
       <c r="R99" s="19"/>
       <c r="S99" s="33">
         <f t="shared" si="4"/>
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
@@ -20581,15 +20611,13 @@
         <v>100.0</v>
       </c>
       <c r="N100" s="19"/>
-      <c r="O100" s="18">
-        <v>100.0</v>
-      </c>
+      <c r="O100" s="18"/>
       <c r="P100" s="19"/>
       <c r="Q100" s="19"/>
       <c r="R100" s="19"/>
       <c r="S100" s="33">
         <f t="shared" si="4"/>
-        <v>1300</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
@@ -20619,15 +20647,13 @@
         <v>500.0</v>
       </c>
       <c r="N101" s="19"/>
-      <c r="O101" s="18">
-        <v>100.0</v>
-      </c>
+      <c r="O101" s="18"/>
       <c r="P101" s="19"/>
       <c r="Q101" s="15"/>
       <c r="R101" s="19"/>
       <c r="S101" s="33">
         <f t="shared" si="4"/>
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
@@ -20661,15 +20687,13 @@
         <v>100.0</v>
       </c>
       <c r="N102" s="19"/>
-      <c r="O102" s="18">
-        <v>100.0</v>
-      </c>
+      <c r="O102" s="18"/>
       <c r="P102" s="19"/>
       <c r="Q102" s="15"/>
       <c r="R102" s="19"/>
       <c r="S102" s="33">
         <f t="shared" si="4"/>
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
@@ -20701,15 +20725,13 @@
         <v>100.0</v>
       </c>
       <c r="N103" s="19"/>
-      <c r="O103" s="18">
-        <v>100.0</v>
-      </c>
+      <c r="O103" s="18"/>
       <c r="P103" s="19"/>
       <c r="Q103" s="19"/>
       <c r="R103" s="15"/>
       <c r="S103" s="33">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
@@ -20808,7 +20830,7 @@
       </c>
       <c r="D111" s="38">
         <f t="shared" ref="D111:D128" si="5">C111+K11+K36+S86-O61</f>
-        <v>19570</v>
+        <v>19470</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -20829,7 +20851,7 @@
       </c>
       <c r="D112" s="38">
         <f t="shared" si="5"/>
-        <v>630</v>
+        <v>-970</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -20850,7 +20872,7 @@
       </c>
       <c r="D113" s="38">
         <f t="shared" si="5"/>
-        <v>13600</v>
+        <v>13100</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -20871,7 +20893,7 @@
       </c>
       <c r="D114" s="38">
         <f t="shared" si="5"/>
-        <v>12950</v>
+        <v>10900</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -20892,7 +20914,7 @@
       </c>
       <c r="D115" s="38">
         <f t="shared" si="5"/>
-        <v>12167</v>
+        <v>12067</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -20913,7 +20935,7 @@
       </c>
       <c r="D116" s="38">
         <f t="shared" si="5"/>
-        <v>10075</v>
+        <v>9975</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -20934,7 +20956,7 @@
       </c>
       <c r="D117" s="38">
         <f t="shared" si="5"/>
-        <v>14195</v>
+        <v>14095</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -20955,7 +20977,7 @@
       </c>
       <c r="D118" s="38">
         <f t="shared" si="5"/>
-        <v>28250</v>
+        <v>29850</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -20976,7 +20998,7 @@
       </c>
       <c r="D119" s="38">
         <f t="shared" si="5"/>
-        <v>10150</v>
+        <v>9850</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -20997,7 +21019,7 @@
       </c>
       <c r="D120" s="38">
         <f t="shared" si="5"/>
-        <v>18840</v>
+        <v>18740</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -21018,7 +21040,7 @@
       </c>
       <c r="D121" s="38">
         <f t="shared" si="5"/>
-        <v>19325</v>
+        <v>19225</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -21039,7 +21061,7 @@
       </c>
       <c r="D122" s="38">
         <f t="shared" si="5"/>
-        <v>18715</v>
+        <v>20415</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -21060,7 +21082,7 @@
       </c>
       <c r="D123" s="38">
         <f t="shared" si="5"/>
-        <v>9034</v>
+        <v>8734</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -21081,7 +21103,7 @@
       </c>
       <c r="D124" s="38">
         <f t="shared" si="5"/>
-        <v>31070</v>
+        <v>30970</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -21102,7 +21124,7 @@
       </c>
       <c r="D125" s="38">
         <f t="shared" si="5"/>
-        <v>4370</v>
+        <v>4270</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -21123,7 +21145,7 @@
       </c>
       <c r="D126" s="38">
         <f t="shared" si="5"/>
-        <v>8040</v>
+        <v>7940</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -21144,7 +21166,7 @@
       </c>
       <c r="D127" s="38">
         <f t="shared" si="5"/>
-        <v>11855</v>
+        <v>11255</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -21165,7 +21187,7 @@
       </c>
       <c r="D128" s="38">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>-900</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -23909,7 +23931,7 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -24012,7 +24034,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C11" s="52">
         <v>3800.0</v>
@@ -24045,7 +24067,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C12" s="40">
         <v>7000.0</v>
@@ -24078,7 +24100,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C13" s="18">
         <v>4450.0</v>
@@ -24111,7 +24133,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C14" s="18">
         <v>2750.0</v>
@@ -24144,7 +24166,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C15" s="18">
         <v>3750.0</v>
@@ -24177,7 +24199,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C16" s="18">
         <v>4750.0</v>
@@ -24210,7 +24232,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C17" s="18">
         <v>2300.0</v>
@@ -24243,7 +24265,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C18" s="18">
         <v>450.0</v>
@@ -24276,7 +24298,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C19" s="40">
         <v>1700.0</v>
@@ -24309,7 +24331,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C20" s="40">
         <v>2050.0</v>
@@ -24342,7 +24364,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C21" s="43">
         <v>4000.0</v>
@@ -24375,7 +24397,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C22" s="18">
         <v>0.0</v>
@@ -24408,7 +24430,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C23" s="18">
         <v>4100.0</v>
@@ -24441,7 +24463,7 @@
         <v>38</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C24" s="18">
         <v>3700.0</v>
@@ -24474,7 +24496,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C25" s="18">
         <v>1800.0</v>
@@ -24691,7 +24713,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="40">
@@ -24717,7 +24739,7 @@
         <v>15</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -24737,7 +24759,7 @@
         <v>17</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="24"/>
@@ -24757,7 +24779,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="24"/>
@@ -24777,7 +24799,7 @@
         <v>21</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="24"/>
@@ -24797,7 +24819,7 @@
         <v>23</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="24"/>
@@ -24817,7 +24839,7 @@
         <v>25</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="24"/>
@@ -24837,7 +24859,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="40">
@@ -24859,7 +24881,7 @@
         <v>29</v>
       </c>
       <c r="B44" s="53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C44" s="24"/>
       <c r="D44" s="40">
@@ -24867,13 +24889,15 @@
       </c>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
+      <c r="G44" s="18">
+        <v>200.0</v>
+      </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
       <c r="K44" s="20">
         <f t="shared" si="2"/>
-        <v>-400</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -24881,19 +24905,21 @@
         <v>31</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
+      <c r="G45" s="18">
+        <v>200.0</v>
+      </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
       <c r="K45" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -24901,19 +24927,21 @@
         <v>33</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
+      <c r="G46" s="18">
+        <v>200.0</v>
+      </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
       <c r="K46" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -24921,7 +24949,7 @@
         <v>35</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="24"/>
@@ -24943,7 +24971,7 @@
         <v>37</v>
       </c>
       <c r="B48" s="51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="24"/>
@@ -24963,7 +24991,7 @@
         <v>38</v>
       </c>
       <c r="B49" s="51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="24"/>
@@ -24983,7 +25011,7 @@
         <v>39</v>
       </c>
       <c r="B50" s="51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="24"/>
@@ -25177,7 +25205,7 @@
         <v>13</v>
       </c>
       <c r="B61" s="51" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C61" s="18">
         <v>500.0</v>
@@ -25207,7 +25235,7 @@
         <v>15</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
@@ -25231,7 +25259,7 @@
         <v>17</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
@@ -25255,7 +25283,7 @@
         <v>19</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
@@ -25281,7 +25309,7 @@
         <v>21</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
@@ -25305,7 +25333,7 @@
         <v>23</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
@@ -25331,7 +25359,7 @@
         <v>25</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
@@ -25355,7 +25383,7 @@
         <v>27</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
@@ -25379,7 +25407,7 @@
         <v>29</v>
       </c>
       <c r="B69" s="53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
@@ -25403,7 +25431,7 @@
         <v>31</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
@@ -25429,7 +25457,7 @@
         <v>33</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
@@ -25453,7 +25481,7 @@
         <v>35</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
@@ -25479,7 +25507,7 @@
         <v>37</v>
       </c>
       <c r="B73" s="51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
@@ -25507,7 +25535,7 @@
         <v>38</v>
       </c>
       <c r="B74" s="51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
@@ -25531,7 +25559,7 @@
         <v>39</v>
       </c>
       <c r="B75" s="51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
@@ -25740,7 +25768,7 @@
         <v>13</v>
       </c>
       <c r="B86" s="51" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C86" s="18">
         <v>500.0</v>
@@ -25776,7 +25804,7 @@
         <v>15</v>
       </c>
       <c r="B87" s="45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C87" s="18">
         <v>300.0</v>
@@ -25812,7 +25840,7 @@
         <v>17</v>
       </c>
       <c r="B88" s="45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C88" s="18">
         <v>100.0</v>
@@ -25846,7 +25874,7 @@
         <v>19</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C89" s="18">
         <v>400.0</v>
@@ -25880,7 +25908,7 @@
         <v>21</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C90" s="18">
         <v>100.0</v>
@@ -25914,7 +25942,7 @@
         <v>23</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C91" s="18">
         <v>100.0</v>
@@ -25948,7 +25976,7 @@
         <v>25</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C92" s="18">
         <v>200.0</v>
@@ -25982,7 +26010,7 @@
         <v>27</v>
       </c>
       <c r="B93" s="45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C93" s="18">
         <v>100.0</v>
@@ -26014,7 +26042,7 @@
         <v>29</v>
       </c>
       <c r="B94" s="53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C94" s="18">
         <v>100.0</v>
@@ -26048,7 +26076,7 @@
         <v>31</v>
       </c>
       <c r="B95" s="45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C95" s="18">
         <v>100.0</v>
@@ -26080,7 +26108,7 @@
         <v>33</v>
       </c>
       <c r="B96" s="45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C96" s="18">
         <v>100.0</v>
@@ -26114,7 +26142,7 @@
         <v>35</v>
       </c>
       <c r="B97" s="45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C97" s="18">
         <v>100.0</v>
@@ -26148,7 +26176,7 @@
         <v>37</v>
       </c>
       <c r="B98" s="51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C98" s="18">
         <v>100.0</v>
@@ -26180,7 +26208,7 @@
         <v>38</v>
       </c>
       <c r="B99" s="51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C99" s="18">
         <v>100.0</v>
@@ -26214,7 +26242,7 @@
         <v>39</v>
       </c>
       <c r="B100" s="51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C100" s="18">
         <v>100.0</v>
@@ -26408,7 +26436,7 @@
         <v>13</v>
       </c>
       <c r="B111" s="51" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C111" s="37">
         <v>1000.0</v>
@@ -26429,7 +26457,7 @@
         <v>15</v>
       </c>
       <c r="B112" s="45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C112" s="37">
         <v>1000.0</v>
@@ -26450,7 +26478,7 @@
         <v>17</v>
       </c>
       <c r="B113" s="45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C113" s="37">
         <v>1000.0</v>
@@ -26471,7 +26499,7 @@
         <v>19</v>
       </c>
       <c r="B114" s="45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C114" s="37">
         <v>1000.0</v>
@@ -26492,7 +26520,7 @@
         <v>21</v>
       </c>
       <c r="B115" s="45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C115" s="37">
         <v>1000.0</v>
@@ -26513,7 +26541,7 @@
         <v>23</v>
       </c>
       <c r="B116" s="45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C116" s="37">
         <v>1000.0</v>
@@ -26534,7 +26562,7 @@
         <v>25</v>
       </c>
       <c r="B117" s="45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C117" s="37">
         <v>1000.0</v>
@@ -26555,7 +26583,7 @@
         <v>27</v>
       </c>
       <c r="B118" s="45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C118" s="37">
         <v>1000.0</v>
@@ -26575,15 +26603,15 @@
       <c r="A119" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B119" s="45" t="s">
-        <v>141</v>
+      <c r="B119" s="53" t="s">
+        <v>135</v>
       </c>
       <c r="C119" s="37">
         <v>1000.0</v>
       </c>
       <c r="D119" s="38">
         <f t="shared" si="5"/>
-        <v>-3495</v>
+        <v>-3295</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -26597,14 +26625,14 @@
         <v>31</v>
       </c>
       <c r="B120" s="45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C120" s="37">
         <v>1000.0</v>
       </c>
       <c r="D120" s="38">
         <f t="shared" si="5"/>
-        <v>-4710</v>
+        <v>-4510</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -26618,14 +26646,14 @@
         <v>33</v>
       </c>
       <c r="B121" s="45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C121" s="37">
         <v>1000.0</v>
       </c>
       <c r="D121" s="38">
         <f t="shared" si="5"/>
-        <v>25603</v>
+        <v>25803</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -26639,7 +26667,7 @@
         <v>35</v>
       </c>
       <c r="B122" s="45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C122" s="37">
         <v>1000.0</v>
@@ -26660,7 +26688,7 @@
         <v>37</v>
       </c>
       <c r="B123" s="51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C123" s="37">
         <v>1000.0</v>
@@ -26681,7 +26709,7 @@
         <v>38</v>
       </c>
       <c r="B124" s="51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C124" s="37">
         <v>1000.0</v>
@@ -26702,7 +26730,7 @@
         <v>39</v>
       </c>
       <c r="B125" s="51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C125" s="37">
         <v>1000.0</v>
